--- a/legend-of-yankee-and-yog-sothoth/checklist.xlsx
+++ b/legend-of-yankee-and-yog-sothoth/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/legend-of-yankee-and-yog-sothoth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA3920C-9F4D-104D-BE38-52D7EF07F6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{761B344A-C881-FD4F-A9AD-F5326B4FEA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="16360" xr2:uid="{A1FCC7AB-5B41-1049-BAFB-B8DA609AD9EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -64,9 +64,6 @@
     <t>Shinkigensha</t>
   </si>
   <si>
-    <t>legend_of_yankee_yog_sothoth.jpg</t>
-  </si>
-  <si>
     <t>replay</t>
   </si>
   <si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Giant Yankee and Ghatanothoa</t>
+  </si>
+  <si>
+    <t>legend_of_yankee_and_yog_sothoth.jpg</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,19 +498,19 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -518,19 +518,19 @@
         <v>2018</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
